--- a/Data/rs.xlsx
+++ b/Data/rs.xlsx
@@ -1,61 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10\Desktop\srgbm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jolakoskip/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EB4CBE-54F1-9E4C-8CC7-1C65DA3EF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="6440" yWindow="520" windowWidth="21980" windowHeight="15980" xr2:uid="{F8428EFA-9F4B-5643-9723-B36B3134A464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>r</t>
+    <t>working_pop</t>
   </si>
   <si>
-    <t>r_2</t>
+    <t>on_layoff</t>
+  </si>
+  <si>
+    <t>not_layoff</t>
+  </si>
+  <si>
+    <t>leavers</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,20 +92,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,7 +144,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -131,7 +156,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -178,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -213,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -364,20 +423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197BEB49-E5D4-3A48-9BAD-B662737F6F8E}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,439 +445,1152 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1977</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.2614444370674462E-3</v>
+      <c r="B2" s="1">
+        <v>136376860.15763342</v>
       </c>
       <c r="C2">
-        <v>1.6756870655759513E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>853916.66666666663</v>
+      </c>
+      <c r="D2">
+        <v>2285250</v>
+      </c>
+      <c r="E2">
+        <v>910583.33333333337</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/B2</f>
+        <v>6.6769636159742986E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(C2+D2)/B2</f>
+        <v>2.3018323365402382E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(C2+D2+E2)/B2</f>
+        <v>2.9695286981376683E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1978</v>
       </c>
-      <c r="B3" s="3">
-        <v>5.0672895051680385E-3</v>
+      <c r="B3" s="1">
+        <v>138700152.609184</v>
       </c>
       <c r="C3">
-        <v>1.3451091573941577E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>702833.33333333337</v>
+      </c>
+      <c r="D3">
+        <v>1865666.6666666667</v>
+      </c>
+      <c r="E3">
+        <v>875500</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F40" si="0">E3/B3</f>
+        <v>6.312177625837947E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G40" si="1">(C3+D3)/B3</f>
+        <v>1.8518364628172208E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H40" si="2">(C3+D3+E3)/B3</f>
+        <v>2.4830542254010154E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1979</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.0246806611474945E-3</v>
+      <c r="B4" s="1">
+        <v>141044883.80473968</v>
       </c>
       <c r="C4">
-        <v>1.2630149838051661E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>849750</v>
+      </c>
+      <c r="D4">
+        <v>1781416.6666666667</v>
+      </c>
+      <c r="E4">
+        <v>880333.33333333337</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2415119895596711E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8654818208856217E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4896330198415886E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1980</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.0641186568338639E-2</v>
+      <c r="B5" s="1">
+        <v>143459951.77612633</v>
       </c>
       <c r="C5">
-        <v>1.7158692153804229E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1526583.3333333333</v>
+      </c>
+      <c r="D5">
+        <v>2461583.3333333335</v>
+      </c>
+      <c r="E5">
+        <v>890666.66666666663</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2084690231638956E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.779986063908849E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4008329662252389E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1981</v>
       </c>
-      <c r="B6" s="3">
-        <v>9.8492878378847685E-3</v>
+      <c r="B6" s="1">
+        <v>145230078.48465341</v>
       </c>
       <c r="C6">
-        <v>1.9540778687868597E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1430416.6666666667</v>
+      </c>
+      <c r="D6">
+        <v>2837916.6666666665</v>
+      </c>
+      <c r="E6">
+        <v>922416.66666666663</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3514161549126976E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9390146847468455E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5741563002381155E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1982</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.4674817060677414E-2</v>
+      <c r="B7" s="1">
+        <v>146935492.76644024</v>
       </c>
       <c r="C7">
-        <v>2.8277731319419092E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2156250</v>
+      </c>
+      <c r="D7">
+        <v>4155000</v>
+      </c>
+      <c r="E7">
+        <v>842000</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7304058001724075E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2952522097788728E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8682927897961137E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1983</v>
       </c>
-      <c r="B8" s="3">
-        <v>1.1787708354104854E-2</v>
+      <c r="B8" s="1">
+        <v>148318533.4347581</v>
       </c>
       <c r="C8">
-        <v>3.0200826157880133E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1748333.3333333333</v>
+      </c>
+      <c r="D8">
+        <v>4479333.333333333</v>
+      </c>
+      <c r="E8">
+        <v>830750</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6011206473089064E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.198845904450689E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7589579691815799E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1984</v>
       </c>
-      <c r="B9" s="3">
-        <v>7.7887315923809777E-3</v>
+      <c r="B9" s="1">
+        <v>149895336.38989675</v>
       </c>
       <c r="C9">
-        <v>2.1611099665976789E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1167500</v>
+      </c>
+      <c r="D9">
+        <v>3239416.6666666665</v>
+      </c>
+      <c r="E9">
+        <v>823083.33333333337</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4910536455409749E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9399958483055922E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4891012128596896E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
-      <c r="B10" s="3">
-        <v>7.6606241238854735E-3</v>
+      <c r="B10" s="1">
+        <v>151227930.11424217</v>
       </c>
       <c r="C10">
-        <v>1.9703160897914868E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1158500</v>
+      </c>
+      <c r="D10">
+        <v>2979666.6666666665</v>
+      </c>
+      <c r="E10">
+        <v>878500</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8091121086981381E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7363772442964535E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3172884551662674E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1986</v>
       </c>
-      <c r="B11" s="3">
-        <v>7.1134953317859486E-3</v>
+      <c r="B11" s="1">
+        <v>153089538.43614849</v>
       </c>
       <c r="C11">
-        <v>1.9272524198040038E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1089000</v>
+      </c>
+      <c r="D11">
+        <v>2950416.6666666665</v>
+      </c>
+      <c r="E11">
+        <v>1016583.3333333334</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.640449397901451E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6385974560576852E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3026423958478303E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="3">
-        <v>6.0493551764819499E-3</v>
+      <c r="B12" s="1">
+        <v>154630721.64148033</v>
       </c>
       <c r="C12">
-        <v>1.6930655935505037E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>935416.66666666663</v>
+      </c>
+      <c r="D12">
+        <v>2618000</v>
+      </c>
+      <c r="E12">
+        <v>965333.33333333337</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2428301639276497E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2980017353249213E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9222847517176864E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
-      <c r="B13" s="3">
-        <v>5.4571645973622643E-3</v>
+      <c r="B13" s="1">
+        <v>156002566.30640209</v>
       </c>
       <c r="C13">
-        <v>1.4362995802199616E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>851333.33333333337</v>
+      </c>
+      <c r="D13">
+        <v>2240666.6666666665</v>
+      </c>
+      <c r="E13">
+        <v>982833.33333333337</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3001100341065321E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.982018676492189E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6120296799028421E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
-      <c r="B14" s="3">
-        <v>5.3587792677584657E-3</v>
+      <c r="B14" s="1">
+        <v>157234106.14418843</v>
       </c>
       <c r="C14">
-        <v>1.3391395827506258E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>842583.33333333337</v>
+      </c>
+      <c r="D14">
+        <v>2105583.3333333335</v>
+      </c>
+      <c r="E14">
+        <v>1011250</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4314926627474399E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8750172840764641E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5181665503512082E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
-      <c r="B15" s="3">
-        <v>6.4629138369889519E-3</v>
+      <c r="B15" s="1">
+        <v>159860038.50583017</v>
       </c>
       <c r="C15">
-        <v>1.4814974888712747E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1033166.6666666667</v>
+      </c>
+      <c r="D15">
+        <v>2368333.3333333335</v>
+      </c>
+      <c r="E15">
+        <v>1040583.3333333333</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5093399392330484E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1277988118812732E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7787328058045777E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
-      <c r="B16" s="3">
-        <v>7.9588187897907999E-3</v>
+      <c r="B16" s="1">
+        <v>161257235.74527249</v>
       </c>
       <c r="C16">
-        <v>2.1199581994482197E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1283416.6666666667</v>
+      </c>
+      <c r="D16">
+        <v>3418583.3333333335</v>
+      </c>
+      <c r="E16">
+        <v>1004500</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2291778434472424E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9158381503124872E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>3.538755934657211E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
-      <c r="B17" s="3">
-        <v>7.7744130104319947E-3</v>
+      <c r="B17" s="1">
+        <v>162638765.29720825</v>
       </c>
       <c r="C17">
-        <v>2.5372272538372303E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1264416.6666666667</v>
+      </c>
+      <c r="D17">
+        <v>4126500</v>
+      </c>
+      <c r="E17">
+        <v>1003250</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1685785560819254E-3</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>3.314656660615465E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9315145162236574E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
-      <c r="B18" s="3">
-        <v>6.8822577157837137E-3</v>
+      <c r="B18" s="1">
+        <v>164177674.70800358</v>
       </c>
       <c r="C18">
-        <v>2.2591312511720744E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1129916.6666666667</v>
+      </c>
+      <c r="D18">
+        <v>3709000</v>
+      </c>
+      <c r="E18">
+        <v>976583.33333333337</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9483321046556728E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9473658189354122E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5421990294009796E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
-      <c r="B19" s="3">
-        <v>5.806594265176432E-3</v>
+      <c r="B19" s="1">
+        <v>165817775.93761241</v>
       </c>
       <c r="C19">
-        <v>1.7064471862681809E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>962833.33333333337</v>
+      </c>
+      <c r="D19">
+        <v>2829583.3333333335</v>
+      </c>
+      <c r="E19">
+        <v>790333.33333333337</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7662762865103786E-3</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2870989827372505E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7637266113882883E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
-      <c r="B20" s="3">
-        <v>6.1671840539557852E-3</v>
+      <c r="B20" s="1">
+        <v>167161800.397275</v>
       </c>
       <c r="C20">
-        <v>1.4641518596718948E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1030916.6666666667</v>
+      </c>
+      <c r="D20">
+        <v>2447500</v>
+      </c>
+      <c r="E20">
+        <v>825000</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9353380858504371E-3</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0808681519341728E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5744019605192164E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
-      <c r="B21" s="3">
-        <v>6.0067170887640742E-3</v>
+      <c r="B21" s="1">
+        <v>168852594.41618234</v>
       </c>
       <c r="C21">
-        <v>1.3891309416707289E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1014250</v>
+      </c>
+      <c r="D21">
+        <v>2345583.3333333335</v>
+      </c>
+      <c r="E21">
+        <v>774166.66666666663</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5848668736384705E-3</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9898026115323562E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4482892988962029E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
-      <c r="B22" s="3">
-        <v>5.4000181465397043E-3</v>
+      <c r="B22" s="1">
+        <v>171140874.36660591</v>
       </c>
       <c r="C22">
-        <v>1.2296368374118056E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>924166.66666666663</v>
+      </c>
+      <c r="D22">
+        <v>2104416.6666666665</v>
+      </c>
+      <c r="E22">
+        <v>792666.66666666663</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6316618960860981E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7696434849606504E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>2.23280967456926E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B23" s="3">
-        <v>4.9886399025830964E-3</v>
+      <c r="B23" s="1">
+        <v>172992657.15813559</v>
       </c>
       <c r="C23">
-        <v>1.1320791859272896E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>863000</v>
+      </c>
+      <c r="D23">
+        <v>1958416.6666666667</v>
+      </c>
+      <c r="E23">
+        <v>733666.66666666663</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2410277911160655E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.630945910084242E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0550486891958483E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
-      <c r="B24" s="3">
-        <v>4.8284323802601148E-3</v>
+      <c r="B24" s="1">
+        <v>175298698.65724733</v>
       </c>
       <c r="C24">
-        <v>1.0099926682535249E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>846416.66666666663</v>
+      </c>
+      <c r="D24">
+        <v>1770500</v>
+      </c>
+      <c r="E24">
+        <v>784250</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4737924811033784E-3</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4928329113174942E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9402121594278319E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
-      <c r="B25" s="3">
-        <v>4.7933160653708812E-3</v>
+      <c r="B25" s="1">
+        <v>179120638.10758251</v>
       </c>
       <c r="C25">
-        <v>9.2284075359295153E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>858583.33333333337</v>
+      </c>
+      <c r="D25">
+        <v>1653000</v>
+      </c>
+      <c r="E25">
+        <v>779333.33333333337</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3508851998687844E-3</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4021741770620755E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8372626970489539E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2001</v>
       </c>
-      <c r="B26" s="3">
-        <v>5.9712184523455988E-3</v>
+      <c r="B26" s="1">
+        <v>181467972.01211193</v>
       </c>
       <c r="C26">
-        <v>1.3337546099150251E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1083583.3333333333</v>
+      </c>
+      <c r="D26">
+        <v>2420333.3333333335</v>
+      </c>
+      <c r="E26">
+        <v>834750</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5999852797400818E-3</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9308733259182514E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3908718538922593E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
-      <c r="B27" s="3">
-        <v>6.0898768848712242E-3</v>
+      <c r="B27" s="1">
+        <v>183788603.81676576</v>
       </c>
       <c r="C27">
-        <v>1.8962912861669866E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1119250</v>
+      </c>
+      <c r="D27">
+        <v>3485166.6666666665</v>
+      </c>
+      <c r="E27">
+        <v>867416.66666666663</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7196433764275557E-3</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5052786576784676E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9772429953212234E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2003</v>
       </c>
-      <c r="B28" s="3">
-        <v>6.0159064270565036E-3</v>
+      <c r="B28" s="1">
+        <v>186962949.23244041</v>
       </c>
       <c r="C28">
-        <v>1.9863585355341468E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1124750</v>
+      </c>
+      <c r="D28">
+        <v>3713750</v>
+      </c>
+      <c r="E28">
+        <v>818416.66666666663</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3774270251223718E-3</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5879459111358839E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0256886136481212E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
-      <c r="B29" s="3">
-        <v>5.2455153397543636E-3</v>
+      <c r="B29" s="1">
+        <v>188764448.99551892</v>
       </c>
       <c r="C29">
-        <v>1.6938217685622606E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>990166.66666666663</v>
+      </c>
+      <c r="D29">
+        <v>3197333.3333333335</v>
+      </c>
+      <c r="E29">
+        <v>858833.33333333337</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5497620865765946E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2183732277360167E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6733494363936759E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
-      <c r="B30" s="3">
-        <v>4.8778847216963701E-3</v>
+      <c r="B30" s="1">
+        <v>191032664.40372577</v>
       </c>
       <c r="C30">
-        <v>1.4275078194098718E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>931833.33333333337</v>
+      </c>
+      <c r="D30">
+        <v>2727000</v>
+      </c>
+      <c r="E30">
+        <v>872250</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5659730639394684E-3</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.915291997184736E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.371889303578683E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
-      <c r="B31" s="3">
-        <v>4.7903119346463553E-3</v>
+      <c r="B31" s="1">
+        <v>193219772.97746509</v>
       </c>
       <c r="C31">
-        <v>1.243186998630361E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>925583.33333333337</v>
+      </c>
+      <c r="D31">
+        <v>2402083.3333333335</v>
+      </c>
+      <c r="E31">
+        <v>826250</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2762186667943359E-3</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7222184952338015E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1498403619132352E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2007</v>
       </c>
-      <c r="B32" s="3">
-        <v>4.9720677664918302E-3</v>
+      <c r="B32" s="1">
+        <v>195659562.23592824</v>
       </c>
       <c r="C32">
-        <v>1.3009410035037715E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>972833.33333333337</v>
+      </c>
+      <c r="D32">
+        <v>2545416.6666666665</v>
+      </c>
+      <c r="E32">
+        <v>792250</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0491248725410978E-3</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7981487640034988E-2</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2030612512576087E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2008</v>
       </c>
-      <c r="B33" s="3">
-        <v>6.0703304969663262E-3</v>
+      <c r="B33" s="1">
+        <v>196597545.24052098</v>
       </c>
       <c r="C33">
-        <v>1.8471251801769499E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1193416.6666666667</v>
+      </c>
+      <c r="D33">
+        <v>3631416.6666666665</v>
+      </c>
+      <c r="E33">
+        <v>894250</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5486325829041168E-3</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4541676384771463E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9090308967675581E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2009</v>
       </c>
-      <c r="B34" s="3">
-        <v>8.3229735343546499E-3</v>
+      <c r="B34" s="1">
+        <v>197997229.63667116</v>
       </c>
       <c r="C34">
-        <v>3.8105970486901959E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1647916.6666666667</v>
+      </c>
+      <c r="D34">
+        <v>7544833.333333333</v>
+      </c>
+      <c r="E34">
+        <v>882250</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4558704261617515E-3</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6428679920768982E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0884550346930735E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="3">
-        <v>7.1059156906474281E-3</v>
+      <c r="B35" s="1">
+        <v>199164930.77923775</v>
       </c>
       <c r="C35">
-        <v>3.9202834531283128E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1415250</v>
+      </c>
+      <c r="D35">
+        <v>7807833.333333333</v>
+      </c>
+      <c r="E35">
+        <v>890250</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4699134356479065E-3</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6308771816643571E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0778685252291476E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B36" s="3">
-        <v>6.1354907799678424E-3</v>
+      <c r="B36" s="1">
+        <v>199969751.68519425</v>
       </c>
       <c r="C36">
-        <v>3.4341753859926084E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1226916.6666666667</v>
+      </c>
+      <c r="D36">
+        <v>6867333.333333333</v>
+      </c>
+      <c r="E36">
+        <v>955500</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7782226659170528E-3</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0477371861432868E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5255594527349924E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
-      <c r="B37" s="3">
-        <v>5.8279012974864581E-3</v>
+      <c r="B37" s="1">
+        <v>201473515.58022091</v>
       </c>
       <c r="C37">
-        <v>2.8246914271727937E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1174166.6666666667</v>
+      </c>
+      <c r="D37">
+        <v>5691000</v>
+      </c>
+      <c r="E37">
+        <v>967750</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8033608646426288E-3</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>3.407478470257376E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8878145567216388E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
-      <c r="B38" s="3">
-        <v>5.6542684600487704E-3</v>
+      <c r="B38" s="1">
+        <v>202339242.10645717</v>
       </c>
       <c r="C38">
-        <v>2.4372782676424488E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1144083.3333333333</v>
+      </c>
+      <c r="D38">
+        <v>4931583.333333333</v>
+      </c>
+      <c r="E38">
+        <v>931833.33333333337</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6053020839282666E-3</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0027129702650871E-2</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4632431786579133E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2014</v>
       </c>
-      <c r="B39" s="3">
-        <v>4.9426165539346451E-3</v>
+      <c r="B39" s="1">
+        <v>203013564.7164526</v>
       </c>
       <c r="C39">
-        <v>1.9035286568024955E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1003416.6666666666</v>
+      </c>
+      <c r="D39">
+        <v>3864416.6666666665</v>
+      </c>
+      <c r="E39">
+        <v>823083.33333333337</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>4.054326785911706E-3</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3977872316720297E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8032199102632001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015</v>
       </c>
-      <c r="B40" s="3">
-        <v>4.7812522928824489E-3</v>
+      <c r="B40" s="1">
+        <v>204357615.83175209</v>
       </c>
       <c r="C40">
-        <v>1.5112418432328528E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+        <v>977083.33333333337</v>
+      </c>
+      <c r="D40">
+        <v>3088333.3333333335</v>
+      </c>
+      <c r="E40">
+        <v>819583.33333333337</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0105348166133304E-3</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9893639148803391E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
+        <v>2.390417396541672E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
